--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Documents\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\ProjetoAvaliação\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{990E407F-7DBB-4D52-B0EC-40E2DA8FDF8B}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D182F11C-D75E-462E-AAD0-905DB7EB65F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2130" yWindow="1065" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="4050" yWindow="3300" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
+    <sheet name="BuscaLupa" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Matheus</t>
   </si>
@@ -69,9 +70,6 @@
     <t>Cep</t>
   </si>
   <si>
-    <t>AmimV</t>
-  </si>
-  <si>
     <t>matheus.amim@hotmail.com</t>
   </si>
   <si>
@@ -87,9 +85,6 @@
     <t>Emilio Lehmann,120</t>
   </si>
   <si>
-    <t>SP</t>
-  </si>
-  <si>
     <t>06695-480</t>
   </si>
   <si>
@@ -124,6 +119,21 @@
   </si>
   <si>
     <t>Brazil</t>
+  </si>
+  <si>
+    <t>sadsxzu</t>
+  </si>
+  <si>
+    <t>Spdasdasds</t>
+  </si>
+  <si>
+    <t>HeadSet</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/section/article/div[3]/div/div/div[2]/ul/li[2]/img</t>
+  </si>
+  <si>
+    <t>/html/body/div[3]/section/article/div[3]/div/div/div[2]/ul/li[1]/img</t>
   </si>
 </sst>
 </file>
@@ -176,10 +186,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -497,8 +508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93621F3-1ABA-4547-8339-842847F49F65}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +546,7 @@
         <v>7</v>
       </c>
       <c r="G1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H1" t="s">
         <v>8</v>
@@ -552,13 +563,13 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" t="s">
         <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>14</v>
       </c>
       <c r="D2" t="s">
         <v>0</v>
@@ -567,54 +578,54 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
+        <v>28</v>
+      </c>
+      <c r="H2" t="s">
         <v>15</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
         <v>30</v>
       </c>
-      <c r="H2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>17</v>
-      </c>
-      <c r="J2" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" t="s">
+      <c r="F3" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="H3" t="s">
         <v>23</v>
       </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
         <v>24</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -631,4 +642,41 @@
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A469EE5-3D0C-467A-8AB5-81E170E63C51}">
+  <dimension ref="A1:A6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="63.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\ProjetoAvaliação\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D182F11C-D75E-462E-AAD0-905DB7EB65F0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85116755-A63B-4BB9-91C5-71C4642E4868}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4050" yWindow="3300" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
     <sheet name="BuscaLupa" sheetId="2" r:id="rId2"/>
+    <sheet name="BuscaHome" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>Matheus</t>
   </si>
@@ -121,26 +122,41 @@
     <t>Brazil</t>
   </si>
   <si>
-    <t>sadsxzu</t>
-  </si>
-  <si>
     <t>Spdasdasds</t>
   </si>
   <si>
-    <t>HeadSet</t>
-  </si>
-  <si>
-    <t>/html/body/div[3]/section/article/div[3]/div/div/div[2]/ul/li[2]/img</t>
-  </si>
-  <si>
-    <t>/html/body/div[3]/section/article/div[3]/div/div/div[2]/ul/li[1]/img</t>
+    <t>Logitech USB Headset H390</t>
+  </si>
+  <si>
+    <t>LapTop</t>
+  </si>
+  <si>
+    <t>HP ENVY - 17t Touch Laptop</t>
+  </si>
+  <si>
+    <t>Headset</t>
+  </si>
+  <si>
+    <t>carro</t>
+  </si>
+  <si>
+    <t>https://www.advantageonlineshopping.com/#/product/14?viewAll=Headset</t>
+  </si>
+  <si>
+    <t>AmimVieira</t>
+  </si>
+  <si>
+    <t>Nome Produtos</t>
+  </si>
+  <si>
+    <t>HP Pro Tablet 608 G1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -164,6 +180,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF222222"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -186,11 +208,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -508,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93621F3-1ABA-4547-8339-842847F49F65}">
   <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,7 +586,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -590,7 +613,7 @@
         <v>16</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K2" t="s">
         <v>17</v>
@@ -614,6 +637,9 @@
       </c>
       <c r="F3" t="s">
         <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>28</v>
       </c>
       <c r="H3" t="s">
         <v>23</v>
@@ -646,34 +672,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A469EE5-3D0C-467A-8AB5-81E170E63C51}">
-  <dimension ref="A1:A6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="70.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A3" r:id="rId1" location="/product/14?viewAll=Headset" xr:uid="{57226DC9-68DE-4FEB-8AE1-E8B7866EF284}"/>
+  </hyperlinks>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91637A43-323E-4909-B4CF-65559BD2B712}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2"/>
+      <c r="A2" s="4" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\ProjetoAvaliação\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85116755-A63B-4BB9-91C5-71C4642E4868}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51BC4AE-847E-4318-ADED-00F5962CBB11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
   <si>
     <t>Matheus</t>
   </si>
@@ -128,35 +128,32 @@
     <t>Logitech USB Headset H390</t>
   </si>
   <si>
-    <t>LapTop</t>
-  </si>
-  <si>
-    <t>HP ENVY - 17t Touch Laptop</t>
-  </si>
-  <si>
     <t>Headset</t>
   </si>
   <si>
-    <t>carro</t>
-  </si>
-  <si>
     <t>https://www.advantageonlineshopping.com/#/product/14?viewAll=Headset</t>
   </si>
   <si>
-    <t>AmimVieira</t>
-  </si>
-  <si>
-    <t>Nome Produtos</t>
-  </si>
-  <si>
     <t>HP Pro Tablet 608 G1</t>
+  </si>
+  <si>
+    <t>https://www.advantageonlineshopping.com/#/product/18</t>
+  </si>
+  <si>
+    <t>Tenis</t>
+  </si>
+  <si>
+    <t>https://www.advantageonlineshopping.com/#/</t>
+  </si>
+  <si>
+    <t>MatheusVieira</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -180,12 +177,6 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF222222"/>
-      <name val="Consolas"/>
-      <family val="3"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -208,12 +199,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -529,9 +519,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93621F3-1ABA-4547-8339-842847F49F65}">
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -546,10 +536,11 @@
     <col min="8" max="8" width="10.28515625" customWidth="1"/>
     <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" customWidth="1"/>
+    <col min="12" max="12" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -584,9 +575,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -618,8 +609,11 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -654,28 +648,32 @@
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="I5" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D868038A-3265-4776-B616-35A1FE857EEF}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{348E6C8F-65C8-4DD2-BED7-A02BB8BDB3DD}"/>
+    <hyperlink ref="L2" r:id="rId3" location="/" xr:uid="{083D1978-5373-4F74-9160-DA28F87CBAF0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A469EE5-3D0C-467A-8AB5-81E170E63C51}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -684,31 +682,25 @@
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
   </sheetData>
@@ -722,29 +714,38 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91637A43-323E-4909-B4CF-65559BD2B712}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="54.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" location="/product/14?viewAll=Headset" xr:uid="{DD3FEDCC-69AA-494C-B1A6-5EF810340F4E}"/>
+    <hyperlink ref="A2" r:id="rId2" location="/product/18" xr:uid="{ECC5840A-7675-4CEF-AFF7-5330259503F9}"/>
+  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\ProjetoAvaliação\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B51BC4AE-847E-4318-ADED-00F5962CBB11}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211E6AD9-AF6A-40E8-94C3-8A65F6CC93BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Matheus</t>
   </si>
@@ -146,7 +146,10 @@
     <t>https://www.advantageonlineshopping.com/#/</t>
   </si>
   <si>
-    <t>MatheusVieira</t>
+    <t>https://www.advantageonlineshopping.com/#/category/Tablets/3</t>
+  </si>
+  <si>
+    <t>kirxhzees7</t>
   </si>
 </sst>
 </file>
@@ -577,7 +580,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -673,7 +676,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -716,7 +719,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91637A43-323E-4909-B4CF-65559BD2B712}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -737,12 +742,12 @@
         <v>34</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="/product/14?viewAll=Headset" xr:uid="{DD3FEDCC-69AA-494C-B1A6-5EF810340F4E}"/>
+    <hyperlink ref="B2" r:id="rId1" location="/category/Tablets/3" xr:uid="{DD3FEDCC-69AA-494C-B1A6-5EF810340F4E}"/>
     <hyperlink ref="A2" r:id="rId2" location="/product/18" xr:uid="{ECC5840A-7675-4CEF-AFF7-5330259503F9}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\ProjetoAvaliação\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211E6AD9-AF6A-40E8-94C3-8A65F6CC93BD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1505443D-FD9A-4B08-8587-CCA5724510DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>Matheus</t>
   </si>
@@ -125,31 +125,22 @@
     <t>Spdasdasds</t>
   </si>
   <si>
-    <t>Logitech USB Headset H390</t>
-  </si>
-  <si>
     <t>Headset</t>
   </si>
   <si>
-    <t>https://www.advantageonlineshopping.com/#/product/14?viewAll=Headset</t>
-  </si>
-  <si>
-    <t>HP Pro Tablet 608 G1</t>
-  </si>
-  <si>
-    <t>https://www.advantageonlineshopping.com/#/product/18</t>
-  </si>
-  <si>
     <t>Tenis</t>
   </si>
   <si>
-    <t>https://www.advantageonlineshopping.com/#/</t>
-  </si>
-  <si>
-    <t>https://www.advantageonlineshopping.com/#/category/Tablets/3</t>
-  </si>
-  <si>
-    <t>kirxhzees7</t>
+    <t>Tablet 608</t>
+  </si>
+  <si>
+    <t>Headset H390</t>
+  </si>
+  <si>
+    <t>chiclete</t>
+  </si>
+  <si>
+    <t>Amidffffrd</t>
   </si>
 </sst>
 </file>
@@ -580,7 +571,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -612,9 +603,7 @@
       <c r="K2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1" t="s">
-        <v>36</v>
-      </c>
+      <c r="L2" s="1"/>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -664,19 +653,18 @@
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{D868038A-3265-4776-B616-35A1FE857EEF}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{348E6C8F-65C8-4DD2-BED7-A02BB8BDB3DD}"/>
-    <hyperlink ref="L2" r:id="rId3" location="/" xr:uid="{083D1978-5373-4F74-9160-DA28F87CBAF0}"/>
   </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A469EE5-3D0C-467A-8AB5-81E170E63C51}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -685,33 +673,31 @@
     <col min="2" max="2" width="26.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A3" r:id="rId1" location="/product/14?viewAll=Headset" xr:uid="{57226DC9-68DE-4FEB-8AE1-E8B7866EF284}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -731,26 +717,18 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" t="s">
-        <v>30</v>
-      </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>37</v>
-      </c>
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" location="/category/Tablets/3" xr:uid="{DD3FEDCC-69AA-494C-B1A6-5EF810340F4E}"/>
-    <hyperlink ref="A2" r:id="rId2" location="/product/18" xr:uid="{ECC5840A-7675-4CEF-AFF7-5330259503F9}"/>
-  </hyperlinks>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\ProjetoAvaliação\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1505443D-FD9A-4B08-8587-CCA5724510DC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2296484D-385B-47F1-845F-F96703447C84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="30" yWindow="30" windowWidth="13995" windowHeight="8025" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
   <si>
     <t>Matheus</t>
   </si>
@@ -140,7 +140,10 @@
     <t>chiclete</t>
   </si>
   <si>
-    <t>Amidffffrd</t>
+    <t>Confirmar Senha</t>
+  </si>
+  <si>
+    <t>AmimGers</t>
   </si>
 </sst>
 </file>
@@ -513,7 +516,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93621F3-1ABA-4547-8339-842847F49F65}">
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -522,19 +525,20 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.28515625" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" customWidth="1"/>
-    <col min="6" max="6" width="12.85546875" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
-    <col min="9" max="9" width="19" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" customWidth="1"/>
-    <col min="12" max="12" width="44.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+    <col min="8" max="8" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" customWidth="1"/>
+    <col min="10" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.7109375" customWidth="1"/>
+    <col min="13" max="13" width="44.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -545,109 +549,118 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E1" t="s">
         <v>5</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>27</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>1</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>28</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>15</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>29</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="1" t="s">
         <v>20</v>
       </c>
       <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>21</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>22</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>28</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I5" s="2"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="F8" s="2"/>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="J5" s="2"/>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\ProjetoAvaliação\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2296484D-385B-47F1-845F-F96703447C84}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CDB4F2-ED3F-4625-A96C-407F032A06A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30" yWindow="30" windowWidth="13995" windowHeight="8025" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="-14580" yWindow="5025" windowWidth="11520" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -131,9 +131,6 @@
     <t>Tenis</t>
   </si>
   <si>
-    <t>Tablet 608</t>
-  </si>
-  <si>
     <t>Headset H390</t>
   </si>
   <si>
@@ -143,7 +140,10 @@
     <t>Confirmar Senha</t>
   </si>
   <si>
-    <t>AmimGers</t>
+    <t>HP Pro</t>
+  </si>
+  <si>
+    <t>AmiViFF</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -694,12 +694,12 @@
         <v>31</v>
       </c>
       <c r="C1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -718,9 +718,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91637A43-323E-4909-B4CF-65559BD2B712}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -730,10 +728,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>32</v>
-      </c>
-      <c r="B1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\ProjetoAvaliação\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CDB4F2-ED3F-4625-A96C-407F032A06A8}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3836C1B-D812-481B-947F-752FF0DEEF51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-14580" yWindow="5025" windowWidth="11520" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <t>HP Pro</t>
   </si>
   <si>
-    <t>AmiViFF</t>
+    <t>Oiix65</t>
   </si>
 </sst>
 </file>

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\ProjetoAvaliação\Avaliacao\target\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\Parte\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3836C1B-D812-481B-947F-752FF0DEEF51}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A8A382-E3F9-442F-BF27-FD43D428193B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="3120" yWindow="2340" windowWidth="13020" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -143,7 +143,7 @@
     <t>HP Pro</t>
   </si>
   <si>
-    <t>Oiix65</t>
+    <t>Oiixi6</t>
   </si>
 </sst>
 </file>

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\Parte\Avaliacao\target\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\MeuProjeto\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A8A382-E3F9-442F-BF27-FD43D428193B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0383C-F261-45EB-95E4-6D6172A42285}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="2340" windowWidth="13020" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="38">
   <si>
     <t>Matheus</t>
   </si>
@@ -134,16 +134,19 @@
     <t>Headset H390</t>
   </si>
   <si>
-    <t>chiclete</t>
-  </si>
-  <si>
     <t>Confirmar Senha</t>
   </si>
   <si>
     <t>HP Pro</t>
   </si>
   <si>
-    <t>Oiixi6</t>
+    <t>laptop</t>
+  </si>
+  <si>
+    <t>HP Stream</t>
+  </si>
+  <si>
+    <t>Miiera5</t>
   </si>
 </sst>
 </file>
@@ -549,7 +552,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E1" t="s">
         <v>5</v>
@@ -578,7 +581,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>12</v>
@@ -677,7 +680,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -688,17 +691,20 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
         <v>30</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>31</v>
-      </c>
-      <c r="C1" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="s">
         <v>32</v>
       </c>
     </row>
@@ -728,7 +734,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s">
         <v>32</v>

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\MeuProjeto\Avaliacao\target\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\Apresentando\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DC0383C-F261-45EB-95E4-6D6172A42285}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B3E6CB-B5BE-4AF0-BA94-191363AD09F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="1860" yWindow="2205" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -146,7 +146,7 @@
     <t>HP Stream</t>
   </si>
   <si>
-    <t>Miiera5</t>
+    <t>Miiera7</t>
   </si>
 </sst>
 </file>

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\Apresentando\Avaliacao\target\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\Projeto\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B3E6CB-B5BE-4AF0-BA94-191363AD09F4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED0C414-880F-4FF2-BE9D-929819523DCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1860" yWindow="2205" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
@@ -146,7 +146,7 @@
     <t>HP Stream</t>
   </si>
   <si>
-    <t>Miiera7</t>
+    <t>AmimVi2998</t>
   </si>
 </sst>
 </file>

--- a/target/Excel/Dados.xlsx
+++ b/target/Excel/Dados.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\Projeto\Avaliacao\target\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matheus.vieira\Desktop\123\Avaliacao\target\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED0C414-880F-4FF2-BE9D-929819523DCB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7BCE246-250A-4CE6-BB0E-059A23F72B27}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="2205" windowWidth="15375" windowHeight="7875" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
+    <workbookView xWindow="1860" yWindow="2205" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{E0E69BFF-8C0C-4BBC-880E-E66347D52EC9}"/>
   </bookViews>
   <sheets>
     <sheet name="Contas" sheetId="1" r:id="rId1"/>
@@ -521,7 +521,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E93621F3-1ABA-4547-8339-842847F49F65}">
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -679,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A469EE5-3D0C-467A-8AB5-81E170E63C51}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -691,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" t="s">
-        <v>30</v>
       </c>
       <c r="C1" t="s">
         <v>31</v>
@@ -702,10 +702,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
         <v>36</v>
-      </c>
-      <c r="B2" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
